--- a/img/exp_result_bar_chart.xlsx
+++ b/img/exp_result_bar_chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="irony_det" sheetId="1" r:id="rId1"/>
@@ -920,11 +920,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2119315376"/>
-        <c:axId val="-2119340864"/>
+        <c:axId val="-2021457296"/>
+        <c:axId val="-2040253056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119315376"/>
+        <c:axId val="-2021457296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,10 +954,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -967,7 +964,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119340864"/>
+        <c:crossAx val="-2040253056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -975,7 +972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119340864"/>
+        <c:axId val="-2040253056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,6 +992,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1012,10 +1010,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -1025,7 +1020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119315376"/>
+        <c:crossAx val="-2021457296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,10 +1059,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="PMingLiU" charset="-120"/>
               <a:ea typeface="PMingLiU" charset="-120"/>
@@ -1100,6 +1092,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="PMingLiU" charset="-120"/>
           <a:ea typeface="PMingLiU" charset="-120"/>
           <a:cs typeface="PMingLiU" charset="-120"/>
@@ -1603,11 +1598,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2116161456"/>
-        <c:axId val="-2092362624"/>
+        <c:axId val="-2128288528"/>
+        <c:axId val="-2046364368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116161456"/>
+        <c:axId val="-2128288528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,10 +1632,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -1650,7 +1642,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092362624"/>
+        <c:crossAx val="-2046364368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092362624"/>
+        <c:axId val="-2046364368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,10 +1687,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -1708,7 +1697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116161456"/>
+        <c:crossAx val="-2128288528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,10 +1727,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="PMingLiU" charset="-120"/>
               <a:ea typeface="PMingLiU" charset="-120"/>
@@ -1774,6 +1760,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="PMingLiU" charset="-120"/>
           <a:ea typeface="PMingLiU" charset="-120"/>
           <a:cs typeface="PMingLiU" charset="-120"/>
@@ -2277,11 +2266,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2055349440"/>
-        <c:axId val="-2055975680"/>
+        <c:axId val="-2129652512"/>
+        <c:axId val="-2040409328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2055349440"/>
+        <c:axId val="-2129652512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,10 +2300,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -2324,7 +2310,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055975680"/>
+        <c:crossAx val="-2040409328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2332,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055975680"/>
+        <c:axId val="-2040409328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,6 +2338,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2369,10 +2356,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="PMingLiU" charset="-120"/>
                 <a:ea typeface="PMingLiU" charset="-120"/>
@@ -2382,7 +2366,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055349440"/>
+        <c:crossAx val="-2129652512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2412,10 +2396,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="PMingLiU" charset="-120"/>
               <a:ea typeface="PMingLiU" charset="-120"/>
@@ -2448,6 +2429,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="PMingLiU" charset="-120"/>
           <a:ea typeface="PMingLiU" charset="-120"/>
           <a:cs typeface="PMingLiU" charset="-120"/>
@@ -2951,11 +2935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2059594624"/>
-        <c:axId val="-2058283840"/>
+        <c:axId val="-2095245776"/>
+        <c:axId val="-2093625120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2059594624"/>
+        <c:axId val="-2095245776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,20 +2969,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058283840"/>
+        <c:crossAx val="-2093625120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3006,7 +2987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058283840"/>
+        <c:axId val="-2093625120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,20 +3024,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059594624"/>
+        <c:crossAx val="-2095245776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,14 +3064,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="PMingLiU" charset="-120"/>
+              <a:ea typeface="PMingLiU" charset="-120"/>
+              <a:cs typeface="PMingLiU" charset="-120"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3121,7 +3096,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="PMingLiU" charset="-120"/>
+          <a:ea typeface="PMingLiU" charset="-120"/>
+          <a:cs typeface="PMingLiU" charset="-120"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3621,11 +3603,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2044840720"/>
-        <c:axId val="-2044930720"/>
+        <c:axId val="-2058260304"/>
+        <c:axId val="-2093076112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044840720"/>
+        <c:axId val="-2058260304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,20 +3637,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044930720"/>
+        <c:crossAx val="-2093076112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3676,7 +3655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044930720"/>
+        <c:axId val="-2093076112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,20 +3692,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044840720"/>
+        <c:crossAx val="-2058260304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3756,14 +3732,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="PMingLiU" charset="-120"/>
+              <a:ea typeface="PMingLiU" charset="-120"/>
+              <a:cs typeface="PMingLiU" charset="-120"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3791,7 +3764,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="PMingLiU" charset="-120"/>
+          <a:ea typeface="PMingLiU" charset="-120"/>
+          <a:cs typeface="PMingLiU" charset="-120"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -4243,11 +4223,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2044209728"/>
-        <c:axId val="-2057656544"/>
+        <c:axId val="-2020848416"/>
+        <c:axId val="-2039786736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044209728"/>
+        <c:axId val="-2020848416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,20 +4257,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057656544"/>
+        <c:crossAx val="-2039786736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4298,7 +4275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057656544"/>
+        <c:axId val="-2039786736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,20 +4313,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044209728"/>
+        <c:crossAx val="-2020848416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4379,14 +4353,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="PMingLiU" charset="-120"/>
+              <a:ea typeface="PMingLiU" charset="-120"/>
+              <a:cs typeface="PMingLiU" charset="-120"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4414,7 +4385,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="PMingLiU" charset="-120"/>
+          <a:ea typeface="PMingLiU" charset="-120"/>
+          <a:cs typeface="PMingLiU" charset="-120"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -4866,11 +4844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2118991808"/>
-        <c:axId val="-2056334352"/>
+        <c:axId val="-2126701872"/>
+        <c:axId val="-2093497056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118991808"/>
+        <c:axId val="-2126701872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,20 +4878,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056334352"/>
+        <c:crossAx val="-2093497056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4921,7 +4896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056334352"/>
+        <c:axId val="-2093497056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4941,6 +4916,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4958,20 +4934,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118991808"/>
+        <c:crossAx val="-2126701872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5001,14 +4974,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="PMingLiU" charset="-120"/>
+              <a:ea typeface="PMingLiU" charset="-120"/>
+              <a:cs typeface="PMingLiU" charset="-120"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -5036,7 +5006,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="PMingLiU" charset="-120"/>
+          <a:ea typeface="PMingLiU" charset="-120"/>
+          <a:cs typeface="PMingLiU" charset="-120"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -5488,11 +5465,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2040890688"/>
-        <c:axId val="-2041527488"/>
+        <c:axId val="2116177808"/>
+        <c:axId val="-2045893056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2040890688"/>
+        <c:axId val="2116177808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,20 +5499,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041527488"/>
+        <c:crossAx val="-2045893056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5543,7 +5517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041527488"/>
+        <c:axId val="-2045893056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5580,20 +5554,17 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="PMingLiU" charset="-120"/>
+                <a:ea typeface="PMingLiU" charset="-120"/>
+                <a:cs typeface="PMingLiU" charset="-120"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040890688"/>
+        <c:crossAx val="2116177808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5623,14 +5594,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="PMingLiU" charset="-120"/>
+              <a:ea typeface="PMingLiU" charset="-120"/>
+              <a:cs typeface="PMingLiU" charset="-120"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -5658,7 +5626,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="PMingLiU" charset="-120"/>
+          <a:ea typeface="PMingLiU" charset="-120"/>
+          <a:cs typeface="PMingLiU" charset="-120"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -10050,15 +10025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>168274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>544000</xdr:colOff>
+      <xdr:colOff>718625</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>85774</xdr:rowOff>
+      <xdr:rowOff>101649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10530,8 +10505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12215,8 +12190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/img/exp_result_bar_chart.xlsx
+++ b/img/exp_result_bar_chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="irony_det" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="115">
   <si>
     <t>CNN</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Bb01_bgru_ek_1554449115</t>
-  </si>
-  <si>
-    <t>Bb01_bgru_ek_1554449693</t>
   </si>
   <si>
     <t>Bb01_lstm_ek_1554449707</t>
@@ -375,6 +372,13 @@
   <si>
     <t>f_tri_blstm_ek_1554612490</t>
   </si>
+  <si>
+    <t>Bb01_bgru_ek_1555407125</t>
+  </si>
+  <si>
+    <t>\\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -405,10 +409,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -417,8 +439,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -920,11 +945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2021457296"/>
-        <c:axId val="-2040253056"/>
+        <c:axId val="2127600672"/>
+        <c:axId val="2127604128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2021457296"/>
+        <c:axId val="2127600672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040253056"/>
+        <c:crossAx val="2127604128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,9 +997,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040253056"/>
+        <c:axId val="2127604128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1020,7 +1046,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2021457296"/>
+        <c:crossAx val="2127600672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1598,11 +1624,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2128288528"/>
-        <c:axId val="-2046364368"/>
+        <c:axId val="-2130447232"/>
+        <c:axId val="2068715312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128288528"/>
+        <c:axId val="-2130447232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046364368"/>
+        <c:crossAx val="2068715312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1650,9 +1676,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046364368"/>
+        <c:axId val="2068715312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1697,7 +1724,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128288528"/>
+        <c:crossAx val="-2130447232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,7 +1917,7 @@
                   <c:v>0.8085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7425</c:v>
+                  <c:v>0.7755</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.8053</c:v>
@@ -2004,7 +2031,7 @@
                   <c:v>0.7565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3713</c:v>
+                  <c:v>0.7301</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.7525</c:v>
@@ -2118,7 +2145,7 @@
                   <c:v>0.7993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7831</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.7932</c:v>
@@ -2232,7 +2259,7 @@
                   <c:v>0.7705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4261</c:v>
+                  <c:v>0.7412</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.7661</c:v>
@@ -2266,11 +2293,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2129652512"/>
-        <c:axId val="-2040409328"/>
+        <c:axId val="2096648960"/>
+        <c:axId val="2096653424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129652512"/>
+        <c:axId val="2096648960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040409328"/>
+        <c:crossAx val="2096653424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,9 +2345,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040409328"/>
+        <c:axId val="2096653424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2366,7 +2394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129652512"/>
+        <c:crossAx val="2096648960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,11 +2963,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2095245776"/>
-        <c:axId val="-2093625120"/>
+        <c:axId val="-2144874160"/>
+        <c:axId val="-2144870896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095245776"/>
+        <c:axId val="-2144874160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +3007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093625120"/>
+        <c:crossAx val="-2144870896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2987,9 +3015,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093625120"/>
+        <c:axId val="-2144870896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3034,7 +3063,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095245776"/>
+        <c:crossAx val="-2144874160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,11 +3632,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2058260304"/>
-        <c:axId val="-2093076112"/>
+        <c:axId val="-2129371488"/>
+        <c:axId val="2091862464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058260304"/>
+        <c:axId val="-2129371488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093076112"/>
+        <c:crossAx val="2091862464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,9 +3684,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093076112"/>
+        <c:axId val="2091862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3702,7 +3732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058260304"/>
+        <c:crossAx val="-2129371488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4223,11 +4253,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2020848416"/>
-        <c:axId val="-2039786736"/>
+        <c:axId val="2096738912"/>
+        <c:axId val="2096742368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2020848416"/>
+        <c:axId val="2096738912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,7 +4297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039786736"/>
+        <c:crossAx val="2096742368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4275,7 +4305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2039786736"/>
+        <c:axId val="2096742368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,7 +4353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020848416"/>
+        <c:crossAx val="2096738912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4844,11 +4874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2126701872"/>
-        <c:axId val="-2093497056"/>
+        <c:axId val="2128309056"/>
+        <c:axId val="-2139812656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126701872"/>
+        <c:axId val="2128309056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +4918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093497056"/>
+        <c:crossAx val="-2139812656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4896,9 +4926,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093497056"/>
+        <c:axId val="-2139812656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.55"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4944,7 +4975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126701872"/>
+        <c:crossAx val="2128309056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5465,11 +5496,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2116177808"/>
-        <c:axId val="-2045893056"/>
+        <c:axId val="2122537792"/>
+        <c:axId val="2130253888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116177808"/>
+        <c:axId val="2122537792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045893056"/>
+        <c:crossAx val="2130253888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5517,9 +5548,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045893056"/>
+        <c:axId val="2130253888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5564,7 +5596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116177808"/>
+        <c:crossAx val="2122537792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10505,8 +10537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10517,7 +10549,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -10560,7 +10592,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -10586,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -10612,7 +10644,7 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -10638,7 +10670,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -10664,7 +10696,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -10690,7 +10722,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -10716,7 +10748,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10742,7 +10774,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10768,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -10794,7 +10826,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10820,7 +10852,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10848,7 +10880,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -11179,7 +11211,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -11333,26 +11365,26 @@
       <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="B60">
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="C60">
-        <v>0.37130000000000002</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-      <c r="E60">
-        <v>0.42609999999999998</v>
-      </c>
-      <c r="F60" t="s">
-        <v>5</v>
+      <c r="B60" s="1">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
       </c>
-      <c r="H60" t="s">
-        <v>43</v>
+      <c r="H60" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -11378,7 +11410,7 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -11404,7 +11436,7 @@
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -11430,7 +11462,7 @@
         <v>6</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -11456,7 +11488,7 @@
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -11482,7 +11514,7 @@
         <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -11508,12 +11540,12 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -11556,7 +11588,7 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -11582,7 +11614,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -11608,7 +11640,7 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -11634,7 +11666,7 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -11660,7 +11692,7 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -11686,7 +11718,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -11712,7 +11744,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -11738,7 +11770,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -11764,7 +11796,7 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11790,7 +11822,7 @@
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -11816,7 +11848,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11842,12 +11874,12 @@
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -11890,7 +11922,7 @@
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -11916,7 +11948,7 @@
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -11942,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -11968,7 +12000,7 @@
         <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -11994,7 +12026,7 @@
         <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -12020,7 +12052,7 @@
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -12046,7 +12078,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -12072,7 +12104,7 @@
         <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -12098,7 +12130,7 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -12124,7 +12156,7 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -12150,7 +12182,7 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -12176,7 +12208,7 @@
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -12190,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="W54" sqref="W54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12201,7 +12233,7 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -12478,12 +12510,12 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -12526,7 +12558,7 @@
         <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -12552,7 +12584,7 @@
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -12578,7 +12610,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -12604,7 +12636,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -12630,7 +12662,7 @@
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -12656,7 +12688,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -12682,7 +12714,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -12708,7 +12740,7 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -12734,7 +12766,7 @@
         <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -12760,12 +12792,12 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -12808,7 +12840,7 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -12834,7 +12866,7 @@
         <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -12860,7 +12892,7 @@
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -12886,7 +12918,7 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -12912,7 +12944,7 @@
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -12938,7 +12970,7 @@
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -12964,7 +12996,7 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -12990,7 +13022,7 @@
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -13016,7 +13048,7 @@
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -13042,7 +13074,7 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/img/exp_result_bar_chart.xlsx
+++ b/img/exp_result_bar_chart.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="115">
   <si>
     <t>CNN</t>
   </si>
@@ -945,11 +945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2127600672"/>
-        <c:axId val="2127604128"/>
+        <c:axId val="-2113666256"/>
+        <c:axId val="-2111347344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127600672"/>
+        <c:axId val="-2113666256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127604128"/>
+        <c:crossAx val="-2111347344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127604128"/>
+        <c:axId val="-2111347344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1046,7 +1046,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127600672"/>
+        <c:crossAx val="-2113666256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1624,11 +1624,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2130447232"/>
-        <c:axId val="2068715312"/>
+        <c:axId val="-2113737680"/>
+        <c:axId val="-2113741200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130447232"/>
+        <c:axId val="-2113737680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2068715312"/>
+        <c:crossAx val="-2113741200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068715312"/>
+        <c:axId val="-2113741200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -1724,7 +1724,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130447232"/>
+        <c:crossAx val="-2113737680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1738,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2293,11 +2292,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2096648960"/>
-        <c:axId val="2096653424"/>
+        <c:axId val="-2111285264"/>
+        <c:axId val="-2111286128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096648960"/>
+        <c:axId val="-2111285264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2336,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096653424"/>
+        <c:crossAx val="-2111286128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2345,7 +2344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096653424"/>
+        <c:axId val="-2111286128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2394,7 +2393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096648960"/>
+        <c:crossAx val="-2111285264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,7 +2407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2963,11 +2961,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144874160"/>
-        <c:axId val="-2144870896"/>
+        <c:axId val="-2111197856"/>
+        <c:axId val="-2111194352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144874160"/>
+        <c:axId val="-2111197856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +3005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144870896"/>
+        <c:crossAx val="-2111194352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3015,7 +3013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144870896"/>
+        <c:axId val="-2111194352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -3063,7 +3061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144874160"/>
+        <c:crossAx val="-2111197856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3077,7 +3075,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3632,11 +3629,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2129371488"/>
-        <c:axId val="2091862464"/>
+        <c:axId val="-2111146480"/>
+        <c:axId val="-2111142976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129371488"/>
+        <c:axId val="-2111146480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,7 +3673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091862464"/>
+        <c:crossAx val="-2111142976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3684,7 +3681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091862464"/>
+        <c:axId val="-2111142976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -3732,7 +3729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129371488"/>
+        <c:crossAx val="-2111146480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3746,7 +3743,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4253,11 +4249,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2096738912"/>
-        <c:axId val="2096742368"/>
+        <c:axId val="-2111083552"/>
+        <c:axId val="-2111080048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096738912"/>
+        <c:axId val="-2111083552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096742368"/>
+        <c:crossAx val="-2111080048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4305,7 +4301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096742368"/>
+        <c:axId val="-2111080048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096738912"/>
+        <c:crossAx val="-2111083552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4627,34 +4623,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7202</c:v>
+                  <c:v>0.9634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6885</c:v>
+                  <c:v>0.956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6536</c:v>
+                  <c:v>0.967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7434</c:v>
+                  <c:v>0.9553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6824</c:v>
+                  <c:v>0.963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6907</c:v>
+                  <c:v>0.9624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6347</c:v>
+                  <c:v>0.9649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6895</c:v>
+                  <c:v>0.9567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6708</c:v>
+                  <c:v>0.9595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6814</c:v>
+                  <c:v>0.9627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,34 +4725,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7981</c:v>
+                  <c:v>0.9448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7572</c:v>
+                  <c:v>0.9391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8233</c:v>
+                  <c:v>0.9224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7488</c:v>
+                  <c:v>0.954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7981</c:v>
+                  <c:v>0.9339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7945</c:v>
+                  <c:v>0.9367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.9168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7608</c:v>
+                  <c:v>0.9391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7788</c:v>
+                  <c:v>0.932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7969</c:v>
+                  <c:v>0.9337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,34 +4827,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7571</c:v>
+                  <c:v>0.954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7212</c:v>
+                  <c:v>0.9475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7287</c:v>
+                  <c:v>0.9442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7461</c:v>
+                  <c:v>0.9546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7357</c:v>
+                  <c:v>0.9482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.739</c:v>
+                  <c:v>0.9494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7127</c:v>
+                  <c:v>0.9402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7234</c:v>
+                  <c:v>0.9478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7208</c:v>
+                  <c:v>0.9456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7346</c:v>
+                  <c:v>0.948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,11 +4870,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2128309056"/>
-        <c:axId val="-2139812656"/>
+        <c:axId val="-2113756256"/>
+        <c:axId val="-2113749488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128309056"/>
+        <c:axId val="-2113756256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,7 +4914,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139812656"/>
+        <c:crossAx val="-2113749488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4926,10 +4922,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139812656"/>
+        <c:axId val="-2113749488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.55"/>
+          <c:min val="0.85"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4975,7 +4971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128309056"/>
+        <c:crossAx val="-2113756256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5496,11 +5492,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122537792"/>
-        <c:axId val="2130253888"/>
+        <c:axId val="-2111037024"/>
+        <c:axId val="-2111033520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122537792"/>
+        <c:axId val="-2111037024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130253888"/>
+        <c:crossAx val="-2111033520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5548,7 +5544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130253888"/>
+        <c:axId val="-2111033520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -5596,7 +5592,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122537792"/>
+        <c:crossAx val="-2111037024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12220,10 +12216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H61"/>
+  <dimension ref="A3:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="W65" sqref="W65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12513,12 +12509,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -12535,7 +12531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -12543,13 +12539,13 @@
         <v>0.92269999999999996</v>
       </c>
       <c r="C28">
-        <v>0.72019999999999995</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="D28">
-        <v>0.79810000000000003</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="E28">
-        <v>0.7571</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -12560,8 +12556,32 @@
       <c r="H28" t="s">
         <v>93</v>
       </c>
+      <c r="W28" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="Y28">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="Z28">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="AA28">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -12569,13 +12589,13 @@
         <v>0.91159999999999997</v>
       </c>
       <c r="C29">
-        <v>0.6885</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D29">
-        <v>0.75719999999999998</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="E29">
-        <v>0.72119999999999995</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -12586,8 +12606,32 @@
       <c r="H29" t="s">
         <v>94</v>
       </c>
+      <c r="W29" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="Y29">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Z29">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="AA29">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -12595,13 +12639,13 @@
         <v>0.90739999999999998</v>
       </c>
       <c r="C30">
-        <v>0.65359999999999996</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D30">
-        <v>0.82330000000000003</v>
+        <v>0.9224</v>
       </c>
       <c r="E30">
-        <v>0.72870000000000001</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -12612,8 +12656,32 @@
       <c r="H30" t="s">
         <v>95</v>
       </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Y30">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Z30">
+        <v>0.9224</v>
+      </c>
+      <c r="AA30">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -12621,13 +12689,13 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="C31">
-        <v>0.74339999999999995</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="D31">
-        <v>0.74880000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E31">
-        <v>0.74609999999999999</v>
+        <v>0.9546</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -12638,8 +12706,32 @@
       <c r="H31" t="s">
         <v>96</v>
       </c>
+      <c r="W31" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Y31">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="Z31">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AA31">
+        <v>0.9546</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -12647,13 +12739,13 @@
         <v>0.91339999999999999</v>
       </c>
       <c r="C32">
-        <v>0.68240000000000001</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D32">
-        <v>0.79810000000000003</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="E32">
-        <v>0.73570000000000002</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -12664,8 +12756,32 @@
       <c r="H32" t="s">
         <v>97</v>
       </c>
+      <c r="W32" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="Z32">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="AA32">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -12673,13 +12789,13 @@
         <v>0.91520000000000001</v>
       </c>
       <c r="C33">
-        <v>0.69069999999999998</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="D33">
-        <v>0.79449999999999998</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E33">
-        <v>0.73899999999999999</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -12690,8 +12806,32 @@
       <c r="H33" t="s">
         <v>98</v>
       </c>
+      <c r="W33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X33">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="Y33">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="Z33">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AA33">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -12699,13 +12839,13 @@
         <v>0.90110000000000001</v>
       </c>
       <c r="C34">
-        <v>0.63470000000000004</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="D34">
-        <v>0.8125</v>
+        <v>0.91679999999999995</v>
       </c>
       <c r="E34">
-        <v>0.7127</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -12716,8 +12856,32 @@
       <c r="H34" t="s">
         <v>99</v>
       </c>
+      <c r="W34" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="Y34">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="Z34">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="AA34">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -12725,13 +12889,13 @@
         <v>0.91210000000000002</v>
       </c>
       <c r="C35">
-        <v>0.6895</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="D35">
-        <v>0.76080000000000003</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="E35">
-        <v>0.72340000000000004</v>
+        <v>0.94779999999999998</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -12742,8 +12906,32 @@
       <c r="H35" t="s">
         <v>100</v>
       </c>
+      <c r="W35" t="s">
+        <v>17</v>
+      </c>
+      <c r="X35">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="Y35">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="Z35">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="AA35">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -12751,13 +12939,13 @@
         <v>0.90890000000000004</v>
       </c>
       <c r="C36">
-        <v>0.67079999999999995</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="D36">
-        <v>0.77880000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E36">
-        <v>0.7208</v>
+        <v>0.9456</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -12768,8 +12956,32 @@
       <c r="H36" t="s">
         <v>101</v>
       </c>
+      <c r="W36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="Y36">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="Z36">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AA36">
+        <v>0.9456</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -12777,13 +12989,13 @@
         <v>0.91310000000000002</v>
       </c>
       <c r="C37">
-        <v>0.68140000000000001</v>
+        <v>0.9627</v>
       </c>
       <c r="D37">
-        <v>0.79690000000000005</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="E37">
-        <v>0.73460000000000003</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -12792,6 +13004,30 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="W37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="Y37">
+        <v>0.9627</v>
+      </c>
+      <c r="Z37">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="AA37">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" t="s">
         <v>102</v>
       </c>
     </row>
